--- a/statistics/HistoricalDistanceData/historical_distance/Q20826727-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q20826727-en.xlsx
@@ -31,48 +31,48 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Bangkok blast: Mohamad Museyin identified as prime suspect in bombings by Thai police</t>
+  </si>
+  <si>
+    <t>Thailand's Shrine Bombing - The Case For Turkey's Grey Wolves</t>
+  </si>
+  <si>
+    <t>Bangkok bombing: Was it the Grey Wolves of Turkey?</t>
+  </si>
+  <si>
+    <t>Bangkok blasts linked by evidence, manhunt has three targets</t>
+  </si>
+  <si>
+    <t>Thai police seek 2 new suspects in Bangkok bombing probe</t>
+  </si>
+  <si>
     <t>Hong Kong says avoid Bangkok, others urge caution after bombing</t>
   </si>
   <si>
-    <t>Bangkok blast: Mohamad Museyin identified as prime suspect in bombings by Thai police</t>
-  </si>
-  <si>
-    <t>Thailand's Shrine Bombing - The Case For Turkey's Grey Wolves</t>
-  </si>
-  <si>
-    <t>Bangkok bombing: Was it the Grey Wolves of Turkey?</t>
-  </si>
-  <si>
-    <t>Thai police seek 2 new suspects in Bangkok bombing probe</t>
-  </si>
-  <si>
-    <t>Bangkok blasts linked by evidence, manhunt has three targets</t>
-  </si>
-  <si>
     <t>Thai police issue arrest warrant for 'foreign' bomb suspect</t>
   </si>
   <si>
     <t>Thailand steps up security in Bangkok after bomb blasts at luxury mall</t>
   </si>
   <si>
+    <t>2015-08-22T14:29:38UTC</t>
+  </si>
+  <si>
+    <t>2015-08-24T18:46:00UTC</t>
+  </si>
+  <si>
+    <t>2015-08-29T15:50:00UTC</t>
+  </si>
+  <si>
+    <t>2015-08-23T07:01:10UTC</t>
+  </si>
+  <si>
+    <t>2015-08-31T10:04:00UTC</t>
+  </si>
+  <si>
     <t>2015-08-18T16:04:00UTC</t>
   </si>
   <si>
-    <t>2015-08-22T14:29:38UTC</t>
-  </si>
-  <si>
-    <t>2015-08-24T18:46:00UTC</t>
-  </si>
-  <si>
-    <t>2015-08-29T15:50:00UTC</t>
-  </si>
-  <si>
-    <t>2015-08-31T10:04:00UTC</t>
-  </si>
-  <si>
-    <t>2015-08-23T07:01:10UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -82,28 +82,28 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>day_2_to_30</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_2_to_30</t>
+    <t>http://www.ibtimes.co.uk/bangkok-blast-mohamad-museyin-identified-prime-suspect-bombings-by-thai-police-1516611</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/susancunningham/2015/08/24/thailands-shrine-bombing-the-case-for-turkeys-grey-wolves/</t>
+  </si>
+  <si>
+    <t>https://www.telegraph.co.uk/news/worldnews/asia/thailand/11832701/Bangkok-bombing-Was-it-the-Grey-Wolves-of-Turkey.html</t>
+  </si>
+  <si>
+    <t>https://www.smh.com.au/world/bangkok-blasts-linked-by-evidence-manhunt-has-three-targets-20150823-gj5mh2.html</t>
+  </si>
+  <si>
+    <t>http://bigstory.ap.org/article/5b19c54b714a401ba403f7e9c3817204/thai-police-seek-2-new-suspects-bangkok-bombing-probe</t>
   </si>
   <si>
     <t>http://www.nationmultimedia.com/breakingnews/Hong-Kong-says-avoid-Bangkok-others-urge-caution-a-30266861.html</t>
-  </si>
-  <si>
-    <t>http://www.ibtimes.co.uk/bangkok-blast-mohamad-museyin-identified-prime-suspect-bombings-by-thai-police-1516611</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/susancunningham/2015/08/24/thailands-shrine-bombing-the-case-for-turkeys-grey-wolves/</t>
-  </si>
-  <si>
-    <t>https://www.telegraph.co.uk/news/worldnews/asia/thailand/11832701/Bangkok-bombing-Was-it-the-Grey-Wolves-of-Turkey.html</t>
-  </si>
-  <si>
-    <t>http://bigstory.ap.org/article/5b19c54b714a401ba403f7e9c3817204/thai-police-seek-2-new-suspects-bangkok-bombing-probe</t>
-  </si>
-  <si>
-    <t>https://www.smh.com.au/world/bangkok-blasts-linked-by-evidence-manhunt-has-three-targets-20150823-gj5mh2.html</t>
   </si>
   <si>
     <t>http://home.bt.com/news/world-news/thai-police-issue-arrest-warrant-for-foreign-bomb-suspect-11363998594671</t>
@@ -511,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -545,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -562,10 +562,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -582,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
